--- a/data/trans_camb/P1416-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1416-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-2.508233798816362</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.788903705452935</v>
+        <v>2.788903705452932</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-2.056041987640402</v>
@@ -664,7 +664,7 @@
         <v>-2.654582940625281</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.857988205350511</v>
+        <v>1.857988205350512</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.258324655924835</v>
+        <v>-3.493831703366786</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.698589826046664</v>
+        <v>-4.555600602994658</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.859105928974605</v>
+        <v>-1.823484297128197</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.333335908142101</v>
+        <v>-4.32419364026275</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.600480433976005</v>
+        <v>-4.513671876862684</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.478110910011252</v>
+        <v>0.5530148679146937</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.26400891813392</v>
+        <v>-3.33195453705437</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.119960847325167</v>
+        <v>-4.125619327592032</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4155962477351668</v>
+        <v>0.170647315630063</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4141882167832072</v>
+        <v>0.4393624428712871</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.056746909650914</v>
+        <v>-1.179286098168899</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.627076647682822</v>
+        <v>2.747467698659665</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.6834518180429126</v>
+        <v>-0.6927563869188703</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.5873351444535054</v>
+        <v>-0.5506195538031319</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.939805488216601</v>
+        <v>4.876495696175381</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.7238495219569472</v>
+        <v>-0.6707062893596097</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.416853899815742</v>
+        <v>-1.339722045176986</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.641728781719817</v>
+        <v>3.373283264366726</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.3339475088327639</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3713160412916753</v>
+        <v>0.3713160412916749</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.3166619834139293</v>
@@ -769,7 +769,7 @@
         <v>-0.4088464652805537</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2861586649508063</v>
+        <v>0.2861586649508065</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5424060230582383</v>
+        <v>-0.5728126840528849</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7462045212625993</v>
+        <v>-0.7466286718305001</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3097375070752258</v>
+        <v>-0.2983584509387471</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5113676405080392</v>
+        <v>-0.5029909227569586</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5453897059535305</v>
+        <v>-0.5346452517946202</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05080414550606019</v>
+        <v>0.05758324889661876</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4669996085908216</v>
+        <v>-0.4589253087247299</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5654711533688445</v>
+        <v>-0.5558751231989347</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.05030383775457684</v>
+        <v>0.01770444144535146</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1107592112150987</v>
+        <v>0.1170236066094079</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.2262302316251595</v>
+        <v>-0.2460477483975309</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6204355589875936</v>
+        <v>0.6437304622782735</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.103236287515561</v>
+        <v>-0.09515236577776702</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.08472104274436458</v>
+        <v>-0.05600596420477919</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7720120391087638</v>
+        <v>0.7536739692453824</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1310101357918033</v>
+        <v>-0.1031258959016682</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2268206935972839</v>
+        <v>-0.2155148746090416</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6326622152019405</v>
+        <v>0.5737893074403783</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-2.025886019213822</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1.032598222824367</v>
+        <v>1.032598222824368</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.8258121250667</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.049645508264313</v>
+        <v>-3.01731103416762</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.47606643364791</v>
+        <v>-3.379202975291696</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.334842597049033</v>
+        <v>2.134355978168394</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.230368933497354</v>
+        <v>-4.337225653713344</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.008273507869942</v>
+        <v>-4.291044647184622</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.8770114599807765</v>
+        <v>-1.009888071111307</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.143977869669172</v>
+        <v>-3.165248261993899</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.150815101581797</v>
+        <v>-3.174064620420707</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.278000702478296</v>
+        <v>1.427643301585688</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1620224925605551</v>
+        <v>0.2080379160097658</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.2599311418828563</v>
+        <v>-0.35961143960523</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.233028035671278</v>
+        <v>6.14175090511252</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.3635261562033731</v>
+        <v>-0.3198445265323402</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.05884932212467151</v>
+        <v>-0.2658634401515877</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.089694246957135</v>
+        <v>3.007711671816505</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.4764838796951952</v>
+        <v>-0.6108316638854553</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.6290166187365448</v>
+        <v>-0.7674101775591549</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.103302891279765</v>
+        <v>4.273009934675793</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.1897140470259974</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09669763547698743</v>
+        <v>0.09669763547698755</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2093837414034574</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3919179112234846</v>
+        <v>-0.3923240424480199</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4534509780072648</v>
+        <v>-0.4335405931684564</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2875223598743268</v>
+        <v>0.2441396130182534</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3635833369276094</v>
+        <v>-0.3697743022112914</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3370663353031882</v>
+        <v>-0.3574485617938721</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07401688527855707</v>
+        <v>-0.08657837073236453</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3320546364758334</v>
+        <v>-0.3329138009110227</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3332200874357847</v>
+        <v>-0.3392321698428553</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1381461657806085</v>
+        <v>0.1517169426388961</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.02684291744589984</v>
+        <v>0.03433181699076397</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.03952937163483652</v>
+        <v>-0.06370331600927374</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.018143696761765</v>
+        <v>1.029132882096984</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.0388714761093474</v>
+        <v>-0.03442485182140957</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.005675096318770259</v>
+        <v>-0.02273279546917382</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3257142839026664</v>
+        <v>0.3148475832333495</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.06572797847162663</v>
+        <v>-0.07973317739181499</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.07934703455360566</v>
+        <v>-0.09725628752560232</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.504561062920276</v>
+        <v>0.5336449937042689</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.323559569085341</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.5153245358823194</v>
+        <v>-0.5153245358823209</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.888693360086344</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.674706893948168</v>
+        <v>-5.803829189013534</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.164623196764341</v>
+        <v>-3.870880319509382</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.93890719099118</v>
+        <v>-3.946595280662864</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.936410016526079</v>
+        <v>-6.262329864560656</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.01784463780663</v>
+        <v>-4.883360066670777</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.8213598396954491</v>
+        <v>-1.214436620459319</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.79517316444337</v>
+        <v>-4.561255665364706</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.167284101460618</v>
+        <v>-3.212879580808265</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.454376616807903</v>
+        <v>-1.058312419502739</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.24530126544232</v>
+        <v>1.285429881552816</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.968228157118469</v>
+        <v>3.327880978600979</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.838421461842366</v>
+        <v>2.792482864014414</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.395616978127961</v>
+        <v>2.212509886684562</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.222017728139257</v>
+        <v>3.525816501485207</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.152895540932819</v>
+        <v>6.648728614186323</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6453723719344986</v>
+        <v>0.8295625813548628</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.234067136741213</v>
+        <v>2.217388852168571</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.808825679599367</v>
+        <v>3.767204036648502</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.03632791619921447</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.05785848524849001</v>
+        <v>-0.05785848524849017</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1615096610600578</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5262635900022052</v>
+        <v>-0.5245684547985937</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3871127907699478</v>
+        <v>-0.3586452224747019</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3674680926831605</v>
+        <v>-0.3699675677283825</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4267784820598929</v>
+        <v>-0.4563194090800645</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3694630116430394</v>
+        <v>-0.3527593659824305</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.06470736243584661</v>
+        <v>-0.07459400539403747</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4152483807934818</v>
+        <v>-0.3919388166682395</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2709566999310878</v>
+        <v>-0.272357137644754</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.10915605539834</v>
+        <v>-0.09186217027703202</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1899338702412546</v>
+        <v>0.1994822645691882</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4218800953279825</v>
+        <v>0.4895652917947254</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4070338082840705</v>
+        <v>0.393172633890818</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2687826645501901</v>
+        <v>0.229167017522481</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3536167881159308</v>
+        <v>0.3951230061392185</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8101487375126862</v>
+        <v>0.7131072929252371</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1013596068574384</v>
+        <v>0.1006213915945539</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2415678870106504</v>
+        <v>0.2394121482299652</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4561658237354621</v>
+        <v>0.4334872130620697</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-1.617181586581742</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.387917282274405</v>
+        <v>2.387917282274401</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.909713881690489</v>
@@ -1306,7 +1306,7 @@
         <v>-1.664336688481091</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.692382010113978</v>
+        <v>2.692382010113977</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.746851121620071</v>
+        <v>-2.612324439255778</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.880268115154693</v>
+        <v>-2.798051311312574</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.549161337485297</v>
+        <v>1.612024804982052</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.656585922651464</v>
+        <v>-3.591084141784261</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.939809788437874</v>
+        <v>-3.052545416159903</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9738186789138845</v>
+        <v>0.9004098373488135</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.865354779747485</v>
+        <v>-2.843534563067325</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.530106155514457</v>
+        <v>-2.557570709617436</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.677560435352104</v>
+        <v>1.676965850875878</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.3420662173528783</v>
+        <v>-0.3941940425410213</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.6271392045792367</v>
+        <v>-0.4681361840847431</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.504732402019938</v>
+        <v>4.448194917551726</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.9459383835726136</v>
+        <v>-0.9080456732588313</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.1799240917449294</v>
+        <v>-0.2622468512326994</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.770761065464101</v>
+        <v>3.772339694498581</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.031708693182464</v>
+        <v>-1.001957389655147</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.7529955850119348</v>
+        <v>-0.6935664577868351</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.679502917702224</v>
+        <v>3.683995339653078</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.168650517864564</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2490279938968155</v>
+        <v>0.2490279938968152</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.2339473147926782</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2038876623949655</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.329827178668623</v>
+        <v>0.3298271786686229</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3805783159787964</v>
+        <v>-0.3622099848170314</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.393186830532084</v>
+        <v>-0.3893318783953624</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2074307253858644</v>
+        <v>0.2147003316684764</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3550963157664223</v>
+        <v>-0.3559651713104963</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2888690974857769</v>
+        <v>-0.2980878198805594</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09527034960185497</v>
+        <v>0.09142469656785879</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3301567264280201</v>
+        <v>-0.3250329957600969</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2941094875513445</v>
+        <v>-0.2918605140905574</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1936523886295113</v>
+        <v>0.1946809922875263</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.04620201158007251</v>
+        <v>-0.06336497122212688</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1011878144234145</v>
+        <v>-0.08105853552919551</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7261685906565796</v>
+        <v>0.7211054986268185</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1046789492804364</v>
+        <v>-0.09757082475610138</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.02278099123211478</v>
+        <v>-0.02885247298040368</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4248648383079232</v>
+        <v>0.4317323618070493</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1302120458662492</v>
+        <v>-0.1310945978994842</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.09721597786129456</v>
+        <v>-0.09410695085041211</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4798077333117182</v>
+        <v>0.4805084956436266</v>
       </c>
     </row>
     <row r="28">
